--- a/projects/project-3/assignment/src/data/ccom-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/ccom-axioms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,29 +470,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000074</t>
+          <t>https://www.commoncoreontologies.org/ont00000061</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Measurement Unit of Acceleration</t>
+          <t>Measurement Unit of Flow</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the rate at which portions of a substance pass per unit of time.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000140</t>
+          <t>https://www.commoncoreontologies.org/ont00000074</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Measurement Unit of Amount of Substance</t>
+          <t>Measurement Unit of Acceleration</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,29 +504,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000140</t>
+          <t>https://www.commoncoreontologies.org/ont00000074</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Measurement Unit of Amount of Substance</t>
+          <t>Measurement Unit of Acceleration</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>comment: The type of particle quantified is typically either atoms or molecules, but may also be protons, neutrons, electrons, quarks, or other particles. The type of particle being measured should always be specified along with the measurement and its unit.</t>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the rate at which objects change their velocities per unit of time.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000198</t>
+          <t>https://www.commoncoreontologies.org/ont00000140</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Measurement Unit of Sound Level</t>
+          <t>Measurement Unit of Amount of Substance</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -538,46 +538,46 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000217</t>
+          <t>https://www.commoncoreontologies.org/ont00000140</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Measurement Unit of Area</t>
+          <t>Measurement Unit of Amount of Substance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>comment: The type of particle quantified is typically either atoms or molecules, but may also be protons, neutrons, electrons, quarks, or other particles. The type of particle being measured should always be specified along with the measurement and its unit.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000229</t>
+          <t>https://www.commoncoreontologies.org/ont00000140</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Measurement Unit of Power</t>
+          <t>Measurement Unit of Amount of Substance</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the number of a specified type of particle in a portion of matter.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000239</t>
+          <t>https://www.commoncoreontologies.org/ont00000198</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Measurement Unit of Mass</t>
+          <t>Measurement Unit of Sound Level</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -589,29 +589,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000374</t>
+          <t>https://www.commoncoreontologies.org/ont00000198</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Measurement Unit of Volumetric Flow Rate</t>
+          <t>Measurement Unit of Sound Level</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000061</t>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the level (the loudness) of sounds.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000444</t>
+          <t>https://www.commoncoreontologies.org/ont00000217</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Measurement Unit of Energy</t>
+          <t>Measurement Unit of Area</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -623,29 +623,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000497</t>
+          <t>https://www.commoncoreontologies.org/ont00000217</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Measurement Unit of Force</t>
+          <t>Measurement Unit of Area</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of two-dimensional regions or Geospatial Regions.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000502</t>
+          <t>https://www.commoncoreontologies.org/ont00000229</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Measurement Unit of Area Moment of Inertia</t>
+          <t>Measurement Unit of Power</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -657,29 +657,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000527</t>
+          <t>https://www.commoncoreontologies.org/ont00000229</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Measurement Unit of Rotational Inertia</t>
+          <t>Measurement Unit of Power</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of rates of work.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000659</t>
+          <t>https://www.commoncoreontologies.org/ont00000239</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Measurement Unit of Torque</t>
+          <t>Measurement Unit of Mass</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -691,63 +691,63 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000707</t>
+          <t>https://www.commoncoreontologies.org/ont00000239</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Measurement Unit of Angle</t>
+          <t>Measurement Unit of Mass</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of an object's resistance to Acceleration when a Force is applied to the object.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000770</t>
+          <t>https://www.commoncoreontologies.org/ont00000374</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Measurement Unit of Density</t>
+          <t>Measurement Unit of Volumetric Flow Rate</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>https://www.commoncoreontologies.org/ont00000061</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000844</t>
+          <t>https://www.commoncoreontologies.org/ont00000374</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Measurement Unit of Temperature</t>
+          <t>Measurement Unit of Volumetric Flow Rate</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>definition: A Measurement Unit of Flow that is used as a standard for measurement of the rate at which volumes of fluid pass per unit time.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000852</t>
+          <t>https://www.commoncoreontologies.org/ont00000444</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Measurement Unit of Work</t>
+          <t>Measurement Unit of Energy</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -759,29 +759,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000940</t>
+          <t>https://www.commoncoreontologies.org/ont00000444</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Measurement Unit of Momentum</t>
+          <t>Measurement Unit of Energy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the Amount of work that is available in an object.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000959</t>
+          <t>https://www.commoncoreontologies.org/ont00000497</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Measurement Unit of Frequency</t>
+          <t>Measurement Unit of Force</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -793,29 +793,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000969</t>
+          <t>https://www.commoncoreontologies.org/ont00000497</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Measurement Unit of Speed</t>
+          <t>Measurement Unit of Force</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of interactions in which the Motion or Velocity of an object is changed, unless the interaction is opposed.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001004</t>
+          <t>https://www.commoncoreontologies.org/ont00000502</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Measurement Unit of Electromagnetic Force</t>
+          <t>Measurement Unit of Area Moment of Inertia</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -827,29 +827,29 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001090</t>
+          <t>https://www.commoncoreontologies.org/ont00000502</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Measurement Unit of Pressure</t>
+          <t>Measurement Unit of Area Moment of Inertia</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the distribution of Mass of an object with respect to an axis.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001290</t>
+          <t>https://www.commoncoreontologies.org/ont00000527</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Measurement Unit of Length</t>
+          <t>Measurement Unit of Rotational Inertia</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -861,29 +861,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001307</t>
+          <t>https://www.commoncoreontologies.org/ont00000527</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Measurement Unit of Mass Flow Rate</t>
+          <t>Measurement Unit of Rotational Inertia</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000061</t>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the distribution of Mass of an object with respect to its axis of rotation.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001317</t>
+          <t>https://www.commoncoreontologies.org/ont00000659</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Measurement Unit of Volume</t>
+          <t>Measurement Unit of Torque</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -895,34 +895,493 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001345</t>
+          <t>https://www.commoncoreontologies.org/ont00000659</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Measurement Unit of Impulse</t>
+          <t>Measurement Unit of Torque</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the rate of change of angular momentum of an object.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>https://www.commoncoreontologies.org/ont00000707</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Angle</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000120</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000707</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Angle</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the angle between two lines or planes in relation to a vertex.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000770</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Density</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000120</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000770</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Density</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the mass of an object per unit of its total volume.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000844</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Temperature</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000120</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000844</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Temperature</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the thermal energy in an object.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000852</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Work</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000120</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000852</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Work</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of displacements of points to which Forces have been applied.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000940</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Momentum</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000120</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000940</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Momentum</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the Momentum of a portion of matter that is in Motion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000959</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Frequency</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000120</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000959</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Frequency</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the number of times an event repeats per unit of time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000969</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Speed</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000120</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000969</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Speed</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the rates at which objects traverse distance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001004</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Electromagnetic Force</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000120</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001004</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Electromagnetic Force</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the electromagnetic force between electrically charged entities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001090</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Pressure</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000120</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001090</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Pressure</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of Force applied perpendicular to a surface per unit area.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001290</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Length</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000120</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001290</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Length</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of one-dimensional regions or Geospatial Regions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001307</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Mass Flow Rate</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000061</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001307</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Mass Flow Rate</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>definition: A Measurement Unit of Flow that is used as a standard for measurement of the rate at which the Mass of a substance passes per unit time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001317</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Volume</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000120</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001317</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Volume</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of sites or three-dimensional regions or Geospatial Regions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001345</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Impulse</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000120</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001345</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Impulse</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of the integral of a Force applied to a portion of matter over a temporal interval.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>https://www.commoncoreontologies.org/ont00001357</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Measurement Unit of Time</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00000120</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.commoncoreontologies.org/ont00001357</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Measurement Unit of Time</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>definition: A Measurement Unit that is used as a standard for measurement of temporal regions.</t>
         </is>
       </c>
     </row>

--- a/projects/project-3/assignment/src/data/ccom-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/ccom-axioms.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the rate at which portions of a substance pass per unit of time.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the rate at which portions of a substance pass per unit of time.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the rate at which objects change their velocities per unit of time.</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the rate at which objects change their velocities per unit of time.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Comment: The type of particle quantified is typically either atoms or molecules, but may also be protons, neutrons, electrons, quarks, or other particles. The type of particle being measured should always be specified along with the measurement and its unit.</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>comment: The type of particle quantified is typically either atoms or molecules, but may also be protons, neutrons, electrons, quarks, or other particles. The type of particle being measured should always be specified along with the measurement and its unit.</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the number of a specified type of particle in a portion of matter.</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the number of a specified type of particle in a portion of matter.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the level (the loudness) of sounds.</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the level (the loudness) of sounds.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of two-dimensional regions or Geospatial Regions.</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of two-dimensional regions or Geospatial Regions.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of rates of work.</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of rates of work.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of an object's resistance to Acceleration when a Force is applied to the object.</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of an object's resistance to Acceleration when a Force is applied to the object.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000061</t>
+          <t>Definition: A Measurement Unit of Flow that is used as a standard for measurement of the rate at which volumes of fluid pass per unit time.</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit of Flow that is used as a standard for measurement of the rate at which volumes of fluid pass per unit time.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000061</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the Amount of work that is available in an object.</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the Amount of work that is available in an object.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of interactions in which the Motion or Velocity of an object is changed, unless the interaction is opposed.</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of interactions in which the Motion or Velocity of an object is changed, unless the interaction is opposed.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the distribution of Mass of an object with respect to an axis.</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the distribution of Mass of an object with respect to an axis.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the distribution of Mass of an object with respect to its axis of rotation.</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the distribution of Mass of an object with respect to its axis of rotation.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the rate of change of angular momentum of an object.</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the rate of change of angular momentum of an object.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the angle between two lines or planes in relation to a vertex.</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the angle between two lines or planes in relation to a vertex.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the mass of an object per unit of its total volume.</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the mass of an object per unit of its total volume.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the thermal energy in an object.</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the thermal energy in an object.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of displacements of points to which Forces have been applied.</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of displacements of points to which Forces have been applied.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the Momentum of a portion of matter that is in Motion.</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the Momentum of a portion of matter that is in Motion.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the number of times an event repeats per unit of time.</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the number of times an event repeats per unit of time.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the rates at which objects traverse distance.</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the rates at which objects traverse distance.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the electromagnetic force between electrically charged entities.</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the electromagnetic force between electrically charged entities.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of Force applied perpendicular to a surface per unit area.</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of Force applied perpendicular to a surface per unit area.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of one-dimensional regions or Geospatial Regions.</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of one-dimensional regions or Geospatial Regions.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000061</t>
+          <t>Definition: A Measurement Unit of Flow that is used as a standard for measurement of the rate at which the Mass of a substance passes per unit time.</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit of Flow that is used as a standard for measurement of the rate at which the Mass of a substance passes per unit time.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000061</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of sites or three-dimensional regions or Geospatial Regions.</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of sites or three-dimensional regions or Geospatial Regions.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of the integral of a Force applied to a portion of matter over a temporal interval.</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of the integral of a Force applied to a portion of matter over a temporal interval.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000120</t>
+          <t>Definition: A Measurement Unit that is used as a standard for measurement of temporal regions.</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>definition: A Measurement Unit that is used as a standard for measurement of temporal regions.</t>
+          <t>SubClassOf: https://www.commoncoreontologies.org/ont00000120</t>
         </is>
       </c>
     </row>
